--- a/RX/dati.xlsx
+++ b/RX/dati.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>100 kVp</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>hvlam4aperto</t>
+  </si>
+  <si>
+    <t>hvlam6chiuso</t>
+  </si>
+  <si>
+    <t>hvlam8chiuso</t>
+  </si>
+  <si>
+    <t>hvlam8aperto</t>
+  </si>
+  <si>
+    <t>hvlam6aperto</t>
+  </si>
+  <si>
+    <t>hvlam10aperto</t>
+  </si>
+  <si>
+    <t>hvlam10chiuso</t>
   </si>
 </sst>
 </file>
@@ -419,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:BE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U18" zoomScale="72" workbookViewId="0">
-      <selection activeCell="AM47" sqref="AM47"/>
+    <sheetView tabSelected="1" topLeftCell="AX27" zoomScale="164" workbookViewId="0">
+      <selection activeCell="AX35" sqref="AX35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,7 +1831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>33.5</v>
       </c>
@@ -1832,8 +1850,26 @@
       <c r="AL33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33.9</v>
       </c>
@@ -1858,8 +1894,44 @@
       <c r="AM34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33.700000000000003</v>
       </c>
@@ -1884,8 +1956,44 @@
       <c r="AM35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO35">
+        <v>30.45</v>
+      </c>
+      <c r="AP35">
+        <v>100</v>
+      </c>
+      <c r="AR35">
+        <v>0.41</v>
+      </c>
+      <c r="AS35">
+        <v>40</v>
+      </c>
+      <c r="AU35">
+        <v>24.77</v>
+      </c>
+      <c r="AV35">
+        <v>100</v>
+      </c>
+      <c r="AX35">
+        <v>0.85</v>
+      </c>
+      <c r="AY35">
+        <v>40</v>
+      </c>
+      <c r="BA35">
+        <v>18.13</v>
+      </c>
+      <c r="BB35">
+        <v>100</v>
+      </c>
+      <c r="BD35">
+        <v>0.15</v>
+      </c>
+      <c r="BE35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>32.9</v>
       </c>
@@ -1910,8 +2018,44 @@
       <c r="AM36">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO36">
+        <v>22.16</v>
+      </c>
+      <c r="AP36">
+        <v>90</v>
+      </c>
+      <c r="AR36">
+        <v>2</v>
+      </c>
+      <c r="AS36">
+        <v>50</v>
+      </c>
+      <c r="AU36">
+        <v>17.68</v>
+      </c>
+      <c r="AV36">
+        <v>90</v>
+      </c>
+      <c r="AX36">
+        <v>3.27</v>
+      </c>
+      <c r="AY36">
+        <v>50</v>
+      </c>
+      <c r="BA36">
+        <v>12.6</v>
+      </c>
+      <c r="BB36">
+        <v>90</v>
+      </c>
+      <c r="BD36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="BE36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>31.4</v>
       </c>
@@ -1936,8 +2080,44 @@
       <c r="AM37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO37">
+        <v>15.7</v>
+      </c>
+      <c r="AP37">
+        <v>80</v>
+      </c>
+      <c r="AR37">
+        <v>4.41</v>
+      </c>
+      <c r="AS37">
+        <v>60</v>
+      </c>
+      <c r="AU37">
+        <v>12.24</v>
+      </c>
+      <c r="AV37">
+        <v>80</v>
+      </c>
+      <c r="AX37">
+        <v>6.59</v>
+      </c>
+      <c r="AY37">
+        <v>60</v>
+      </c>
+      <c r="BA37">
+        <v>8.36</v>
+      </c>
+      <c r="BB37">
+        <v>80</v>
+      </c>
+      <c r="BD37">
+        <v>2.65</v>
+      </c>
+      <c r="BE37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>29.42</v>
       </c>
@@ -1962,8 +2142,44 @@
       <c r="AM38">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO38">
+        <v>10.73</v>
+      </c>
+      <c r="AP38">
+        <v>70</v>
+      </c>
+      <c r="AR38">
+        <v>7.76</v>
+      </c>
+      <c r="AS38">
+        <v>70</v>
+      </c>
+      <c r="AU38">
+        <v>8.09</v>
+      </c>
+      <c r="AV38">
+        <v>70</v>
+      </c>
+      <c r="AX38">
+        <v>11.04</v>
+      </c>
+      <c r="AY38">
+        <v>70</v>
+      </c>
+      <c r="BA38">
+        <v>5.3</v>
+      </c>
+      <c r="BB38">
+        <v>70</v>
+      </c>
+      <c r="BD38">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="BE38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>27.12</v>
       </c>
@@ -1988,8 +2204,44 @@
       <c r="AM39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO39">
+        <v>6.41</v>
+      </c>
+      <c r="AP39">
+        <v>60</v>
+      </c>
+      <c r="AR39">
+        <v>11.71</v>
+      </c>
+      <c r="AS39">
+        <v>80</v>
+      </c>
+      <c r="AU39">
+        <v>4.62</v>
+      </c>
+      <c r="AV39">
+        <v>60</v>
+      </c>
+      <c r="AX39">
+        <v>16.22</v>
+      </c>
+      <c r="AY39">
+        <v>80</v>
+      </c>
+      <c r="BA39">
+        <v>2.8</v>
+      </c>
+      <c r="BB39">
+        <v>60</v>
+      </c>
+      <c r="BD39">
+        <v>7.95</v>
+      </c>
+      <c r="BE39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>24.29</v>
       </c>
@@ -2014,8 +2266,44 @@
       <c r="AM40">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO40">
+        <v>3.15</v>
+      </c>
+      <c r="AP40">
+        <v>50</v>
+      </c>
+      <c r="AR40">
+        <v>17</v>
+      </c>
+      <c r="AS40">
+        <v>90</v>
+      </c>
+      <c r="AU40">
+        <v>2.09</v>
+      </c>
+      <c r="AV40">
+        <v>50</v>
+      </c>
+      <c r="AX40">
+        <v>22.81</v>
+      </c>
+      <c r="AY40">
+        <v>90</v>
+      </c>
+      <c r="BA40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BB40">
+        <v>50</v>
+      </c>
+      <c r="BD40">
+        <v>11.9</v>
+      </c>
+      <c r="BE40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>15.3</v>
       </c>
@@ -2040,8 +2328,44 @@
       <c r="AM41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AO41">
+        <v>0.82</v>
+      </c>
+      <c r="AP41">
+        <v>40</v>
+      </c>
+      <c r="AR41">
+        <v>23.73</v>
+      </c>
+      <c r="AS41">
+        <v>100</v>
+      </c>
+      <c r="AU41">
+        <v>0.44</v>
+      </c>
+      <c r="AV41">
+        <v>40</v>
+      </c>
+      <c r="AX41">
+        <v>31.4</v>
+      </c>
+      <c r="AY41">
+        <v>100</v>
+      </c>
+      <c r="BA41">
+        <v>0.21</v>
+      </c>
+      <c r="BB41">
+        <v>40</v>
+      </c>
+      <c r="BD41">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="BE41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>25.67</v>
       </c>
@@ -2067,7 +2391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AE43">
         <v>4.3600000000000003</v>
       </c>
@@ -2087,7 +2411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AE44">
         <v>2.4</v>
       </c>
@@ -2107,7 +2431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AI45">
         <v>7.17</v>
       </c>
@@ -2121,7 +2445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AI46">
         <v>4.5999999999999996</v>
       </c>
@@ -2135,7 +2459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AD47" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +2476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AE48">
         <v>1.66</v>
       </c>
